--- a/analysis/obt/202312.xlsx
+++ b/analysis/obt/202312.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\CostOfLivingTracker\analysis\obt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E351DB09-ACDF-42CC-A255-8FB8B703D5C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FCBFC0-0B85-4043-AAF4-897C4F546F01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51225" yWindow="75" windowWidth="25500" windowHeight="20730" xr2:uid="{66461892-D4D5-4368-9A14-5DF99212FE1F}"/>
+    <workbookView xWindow="75" yWindow="75" windowWidth="25500" windowHeight="20730" xr2:uid="{66461892-D4D5-4368-9A14-5DF99212FE1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="144">
   <si>
     <t>Date</t>
   </si>
@@ -424,6 +424,42 @@
   </si>
   <si>
     <t>Accommodation</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>ALDI STORES - WATTLE G   WATTL  - ALDI STORES - WATTLE G   WATTL</t>
+  </si>
+  <si>
+    <t>IGA CANNING B  L0013     APPLE  - IGA CANNING B  L0013     APPLE</t>
+  </si>
+  <si>
+    <t>COLES 4824               CLOVE  - COLES 4824               CLOVE</t>
+  </si>
+  <si>
+    <t>ALDI STORES - CLOVERDA   CLOVE  - ALDI STORES - CLOVERDA   CLOVE</t>
+  </si>
+  <si>
+    <t>DUNCRAIG FRESH IGA       DUNCR  - DUNCRAIG FRESH IGA       DUNCR</t>
+  </si>
+  <si>
+    <t>WOOLWORTHS      4348     BELMO  - WOOLWORTHS      4348     BELMO</t>
+  </si>
+  <si>
+    <t>CHOPIN PATISSERIE        SORRE  - CHOPIN PATISSERIE        SORRE</t>
+  </si>
+  <si>
+    <t>CRACOVIA CLUB INC        WA WA  - CRACOVIA CLUB INC        WA WA</t>
+  </si>
+  <si>
+    <t>WOOLWORTHS      4995     COOGE  - WOOLWORTHS      4995     COOGE</t>
+  </si>
+  <si>
+    <t>Chopin Patisserie</t>
+  </si>
+  <si>
+    <t>User</t>
   </si>
 </sst>
 </file>
@@ -807,23 +843,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5441E1-F889-4338-9AF6-3DBA7C3E975C}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,16 +870,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -853,17 +892,17 @@
       <c r="C2">
         <v>72</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -873,17 +912,17 @@
       <c r="C3">
         <v>13.28</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -893,17 +932,17 @@
       <c r="C4">
         <v>86.89</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>125</v>
       </c>
@@ -913,14 +952,14 @@
       <c r="C5">
         <v>3.8</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>123</v>
       </c>
@@ -930,14 +969,14 @@
       <c r="C6">
         <v>31.67</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
       <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -947,14 +986,14 @@
       <c r="C7">
         <v>236.86</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>50</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -964,17 +1003,17 @@
       <c r="C8">
         <v>67</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>117</v>
       </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
       <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -984,14 +1023,14 @@
       <c r="C9">
         <v>146.76</v>
       </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
       <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -1001,17 +1040,17 @@
       <c r="C10">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>68</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>50</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -1021,14 +1060,14 @@
       <c r="C11">
         <v>494.9</v>
       </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
       <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -1038,17 +1077,17 @@
       <c r="C12">
         <v>79.739999999999995</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>56</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>57</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -1058,17 +1097,17 @@
       <c r="C13">
         <v>133</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
       <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -1078,17 +1117,17 @@
       <c r="C14">
         <v>50.4</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>109</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>50</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>105</v>
       </c>
@@ -1098,14 +1137,14 @@
       <c r="C15">
         <v>10</v>
       </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
       <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -1115,17 +1154,17 @@
       <c r="C16">
         <v>24.98</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>104</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>50</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -1135,17 +1174,17 @@
       <c r="C17">
         <v>25</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>36</v>
       </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
       <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -1155,17 +1194,17 @@
       <c r="C18">
         <v>30</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>68</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>50</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -1175,17 +1214,17 @@
       <c r="C19">
         <v>2.5</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>36</v>
       </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
       <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>94</v>
       </c>
@@ -1195,17 +1234,17 @@
       <c r="C20">
         <v>4.6900000000000004</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>21</v>
       </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>92</v>
       </c>
@@ -1215,17 +1254,17 @@
       <c r="C21">
         <v>49.05</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>65</v>
       </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -1235,17 +1274,17 @@
       <c r="C22">
         <v>9.9</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
       <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -1255,17 +1294,17 @@
       <c r="C23">
         <v>5.05</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>89</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>57</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -1275,17 +1314,17 @@
       <c r="C24">
         <v>33.9</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>12</v>
       </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -1295,17 +1334,17 @@
       <c r="C25">
         <v>12.73</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>86</v>
       </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -1315,17 +1354,17 @@
       <c r="C26">
         <v>61</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>21</v>
       </c>
-      <c r="E26" t="s">
-        <v>13</v>
-      </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -1335,17 +1374,17 @@
       <c r="C27">
         <v>24</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>12</v>
       </c>
-      <c r="E27" t="s">
-        <v>13</v>
-      </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -1355,17 +1394,17 @@
       <c r="C28">
         <v>30</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>78</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>17</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -1375,14 +1414,14 @@
       <c r="C29">
         <v>26</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>17</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -1392,14 +1431,14 @@
       <c r="C30">
         <v>3.5</v>
       </c>
-      <c r="E30" t="s">
-        <v>13</v>
-      </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -1409,14 +1448,14 @@
       <c r="C31">
         <v>120.54</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>17</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -1426,17 +1465,17 @@
       <c r="C32">
         <v>27.1</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>65</v>
       </c>
-      <c r="E32" t="s">
-        <v>13</v>
-      </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -1446,17 +1485,17 @@
       <c r="C33">
         <v>12.6</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="E33" t="s">
-        <v>13</v>
-      </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -1466,17 +1505,17 @@
       <c r="C34">
         <v>30</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>68</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>50</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -1486,17 +1525,17 @@
       <c r="C35">
         <v>12.99</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>61</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>50</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -1506,17 +1545,17 @@
       <c r="C36">
         <v>62.58</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>56</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>57</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -1526,17 +1565,17 @@
       <c r="C37">
         <v>9.98</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>36</v>
       </c>
-      <c r="E37" t="s">
-        <v>13</v>
-      </c>
       <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -1546,17 +1585,17 @@
       <c r="C38">
         <v>40.049999999999997</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>12</v>
       </c>
-      <c r="E38" t="s">
-        <v>13</v>
-      </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -1566,17 +1605,17 @@
       <c r="C39">
         <v>3.06</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>49</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>50</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1586,17 +1625,17 @@
       <c r="C40">
         <v>20.329999999999998</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>45</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>17</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1606,14 +1645,14 @@
       <c r="C41">
         <v>15</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>17</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -1623,17 +1662,17 @@
       <c r="C42">
         <v>3.99</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>40</v>
       </c>
-      <c r="E42" t="s">
-        <v>13</v>
-      </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -1643,17 +1682,17 @@
       <c r="C43">
         <v>12.47</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>33</v>
       </c>
-      <c r="E43" t="s">
-        <v>13</v>
-      </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -1663,17 +1702,17 @@
       <c r="C44">
         <v>18.989999999999998</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>33</v>
       </c>
-      <c r="E44" t="s">
-        <v>13</v>
-      </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -1683,17 +1722,17 @@
       <c r="C45">
         <v>8.75</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>36</v>
       </c>
-      <c r="E45" t="s">
-        <v>13</v>
-      </c>
       <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>29</v>
       </c>
@@ -1703,14 +1742,14 @@
       <c r="C46">
         <v>20.2</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>17</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -1720,14 +1759,14 @@
       <c r="C47">
         <v>29</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>17</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -1737,17 +1776,17 @@
       <c r="C48">
         <v>93.24</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>12</v>
       </c>
-      <c r="E48" t="s">
-        <v>13</v>
-      </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -1757,17 +1796,17 @@
       <c r="C49">
         <v>21.44</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>24</v>
       </c>
-      <c r="E49" t="s">
-        <v>13</v>
-      </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -1777,17 +1816,17 @@
       <c r="C50">
         <v>44.52</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>21</v>
       </c>
-      <c r="E50" t="s">
-        <v>13</v>
-      </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -1797,14 +1836,14 @@
       <c r="C51">
         <v>93.9</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>17</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -1814,17 +1853,17 @@
       <c r="C52">
         <v>414.35</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>8</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>9</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -1834,17 +1873,17 @@
       <c r="C53">
         <v>13.95</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>12</v>
       </c>
-      <c r="E53" t="s">
-        <v>13</v>
-      </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45288</v>
       </c>
@@ -1854,14 +1893,14 @@
       <c r="C54">
         <v>641.75</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>131</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>45281</v>
       </c>
@@ -1871,14 +1910,14 @@
       <c r="C55">
         <v>641.75</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>131</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>45274</v>
       </c>
@@ -1888,14 +1927,14 @@
       <c r="C56">
         <v>641.75</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>131</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45267</v>
       </c>
@@ -1905,16 +1944,407 @@
       <c r="C57">
         <v>641.75</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>131</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>130</v>
       </c>
     </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>45265</v>
+      </c>
+      <c r="B58" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58">
+        <v>-83.113600000000005</v>
+      </c>
+      <c r="D58" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>45267</v>
+      </c>
+      <c r="B59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59">
+        <v>-13.9488</v>
+      </c>
+      <c r="D59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>45268</v>
+      </c>
+      <c r="B60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60">
+        <v>-23.497600000000002</v>
+      </c>
+      <c r="D60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" t="s">
+        <v>86</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>45268</v>
+      </c>
+      <c r="B61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61">
+        <v>-46.011200000000002</v>
+      </c>
+      <c r="D61" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62">
+        <v>-77.251999999999995</v>
+      </c>
+      <c r="D62" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>45274</v>
+      </c>
+      <c r="B63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63">
+        <v>-8.7615999999999996</v>
+      </c>
+      <c r="D63" t="s">
+        <v>132</v>
+      </c>
+      <c r="E63" t="s">
+        <v>86</v>
+      </c>
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>45274</v>
+      </c>
+      <c r="B64" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64">
+        <v>-10.5336</v>
+      </c>
+      <c r="D64" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>45278</v>
+      </c>
+      <c r="B65" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65">
+        <v>-71.456000000000003</v>
+      </c>
+      <c r="D65" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>45278</v>
+      </c>
+      <c r="B66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66">
+        <v>-9.3344000000000005</v>
+      </c>
+      <c r="D66" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>45278</v>
+      </c>
+      <c r="B67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67">
+        <v>-24.5672</v>
+      </c>
+      <c r="D67" t="s">
+        <v>132</v>
+      </c>
+      <c r="E67" t="s">
+        <v>142</v>
+      </c>
+      <c r="F67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>45277</v>
+      </c>
+      <c r="B68" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68">
+        <v>-20.852800000000002</v>
+      </c>
+      <c r="D68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E68" t="s">
+        <v>78</v>
+      </c>
+      <c r="F68" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>45281</v>
+      </c>
+      <c r="B69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69">
+        <v>-9.3872</v>
+      </c>
+      <c r="D69" t="s">
+        <v>132</v>
+      </c>
+      <c r="E69" t="s">
+        <v>86</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>45281</v>
+      </c>
+      <c r="B70" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70">
+        <v>-9.1872000000000007</v>
+      </c>
+      <c r="D70" t="s">
+        <v>132</v>
+      </c>
+      <c r="E70" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>45284</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71">
+        <v>-22.7912</v>
+      </c>
+      <c r="D71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>45287</v>
+      </c>
+      <c r="B72" t="s">
+        <v>135</v>
+      </c>
+      <c r="C72">
+        <v>-10.853599999999998</v>
+      </c>
+      <c r="D72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E72" t="s">
+        <v>86</v>
+      </c>
+      <c r="F72" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>45287</v>
+      </c>
+      <c r="B73" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73">
+        <v>-33.951999999999998</v>
+      </c>
+      <c r="D73" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>45288</v>
+      </c>
+      <c r="B74" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74">
+        <v>-37.822399999999995</v>
+      </c>
+      <c r="D74" t="s">
+        <v>132</v>
+      </c>
+      <c r="E74" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F53" xr:uid="{DF79F581-EA74-41F4-AF99-9B7CE99D7414}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F57">
+  <autoFilter ref="A1:G53" xr:uid="{DF79F581-EA74-41F4-AF99-9B7CE99D7414}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G57">
       <sortCondition descending="1" ref="A1:A53"/>
     </sortState>
   </autoFilter>
